--- a/BOI12.xlsx
+++ b/BOI12.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9380" yWindow="7840" windowWidth="16380" windowHeight="8200" tabRatio="167"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="167"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="26">
   <si>
     <t>Account</t>
   </si>
@@ -27,6 +27,9 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Rep</t>
+  </si>
+  <si>
     <t>Manager</t>
   </si>
   <si>
@@ -36,12 +39,12 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>Price</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
+    <t>Craig Booker</t>
+  </si>
+  <si>
     <t>CPU</t>
   </si>
   <si>
@@ -54,7 +57,19 @@
     <t>declined</t>
   </si>
   <si>
+    <t>Daniel Hilton</t>
+  </si>
+  <si>
     <t>won</t>
+  </si>
+  <si>
+    <t>John Smith</t>
+  </si>
+  <si>
+    <t>Cedric Moss</t>
+  </si>
+  <si>
+    <t>Wendy Yule</t>
   </si>
   <si>
     <t>Juan Para</t>
@@ -519,16 +534,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C5" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="9.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -558,22 +568,22 @@
         <v>714466</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>30000</v>
-      </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -581,22 +591,22 @@
         <v>714466</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>10000</v>
-      </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -604,22 +614,22 @@
         <v>714466</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4">
         <v>2</v>
       </c>
-      <c r="F4">
-        <v>5000</v>
-      </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -627,22 +637,22 @@
         <v>737550</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
         <v>9</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>35000</v>
-      </c>
-      <c r="G5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -650,22 +660,22 @@
         <v>146832</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
         <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>65000</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -673,22 +683,22 @@
         <v>218895</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
         <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>40000</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -696,22 +706,22 @@
         <v>218895</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
         <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>10000</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -719,22 +729,22 @@
         <v>412290</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
         <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>5000</v>
-      </c>
-      <c r="G9" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -742,22 +752,22 @@
         <v>740150</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10">
         <v>1</v>
       </c>
-      <c r="F10">
-        <v>35000</v>
-      </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -765,22 +775,22 @@
         <v>141962</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11">
         <v>2</v>
       </c>
-      <c r="F11">
-        <v>65000</v>
-      </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -788,22 +798,22 @@
         <v>163416</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12">
         <v>1</v>
       </c>
-      <c r="F12">
-        <v>30000</v>
-      </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -811,22 +821,22 @@
         <v>239344</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
         <v>19</v>
       </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13">
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13">
         <v>1</v>
       </c>
-      <c r="F13">
-        <v>5000</v>
-      </c>
       <c r="G13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -834,22 +844,22 @@
         <v>239344</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14">
         <v>1</v>
       </c>
-      <c r="F14">
-        <v>10000</v>
-      </c>
       <c r="G14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -857,22 +867,22 @@
         <v>307599</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15">
         <v>3</v>
       </c>
-      <c r="F15">
-        <v>7000</v>
-      </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -880,22 +890,22 @@
         <v>688981</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16">
         <v>5</v>
       </c>
-      <c r="F16">
-        <v>100000</v>
-      </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -903,27 +913,26 @@
         <v>729833</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17">
         <v>2</v>
       </c>
-      <c r="F17">
-        <v>65000</v>
-      </c>
       <c r="G17" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
